--- a/data/n2v/tables/model-1-1536-20230830-69.xlsx
+++ b/data/n2v/tables/model-1-1536-20230830-69.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1115" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1179" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1222" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1224" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1227" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1232" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1234" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         </is>
       </c>
       <c r="C1239" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1239" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         </is>
       </c>
       <c r="C1284" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         </is>
       </c>
       <c r="C1288" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         </is>
       </c>
       <c r="C1291" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         </is>
       </c>
       <c r="C1317" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1317" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         </is>
       </c>
       <c r="C1326" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="C1355" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         </is>
       </c>
       <c r="C1369" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="C1374" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         </is>
       </c>
       <c r="C1392" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         </is>
       </c>
       <c r="C1413" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1413" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         </is>
       </c>
       <c r="C1475" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         </is>
       </c>
       <c r="C1541" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1541" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         </is>
       </c>
       <c r="C1557" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1557" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         </is>
       </c>
       <c r="C1603" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1603" t="inlineStr">
         <is>
